--- a/biology/Médecine/Nathan_d'Aubigné/Nathan_d'Aubigné.xlsx
+++ b/biology/Médecine/Nathan_d'Aubigné/Nathan_d'Aubigné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nathan_d%27Aubign%C3%A9</t>
+          <t>Nathan_d'Aubigné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathan d'Aubigné (alias (sc), ou (sc) ; né le 16 janvier 1601 à Nancray-sur-Rimarde (Orléanais) et mort le 11 avril 1669 à Genève), est un médecin et essayiste huguenot.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nathan_d%27Aubign%C3%A9</t>
+          <t>Nathan_d'Aubigné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils naturel d'Agrippa d'Aubigné (donc demi-oncle de Madame de Maintenon et, par alliance, de Louis XIV), il est seigneur de la Fosse en Saintonge. Réfugié à Genève en 1620 avec ses parents, il est docteur en médecine à Fribourg-en-Brisgau en 1626. Il est actionnaire de la compagnie des Indes orientales. Il exerça la médecine à Genève, où il obtint le droit de bourgeoisie[1] le 10 mars 1627.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils naturel d'Agrippa d'Aubigné (donc demi-oncle de Madame de Maintenon et, par alliance, de Louis XIV), il est seigneur de la Fosse en Saintonge. Réfugié à Genève en 1620 avec ses parents, il est docteur en médecine à Fribourg-en-Brisgau en 1626. Il est actionnaire de la compagnie des Indes orientales. Il exerça la médecine à Genève, où il obtint le droit de bourgeoisie le 10 mars 1627.
 Il est l'ancêtre du pasteur Jean-Henri Merle d'Aubigné.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nathan_d%27Aubign%C3%A9</t>
+          <t>Nathan_d'Aubigné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bibliotheca chemica, contracta ex delectis et emendatione Nathanis Albinei, Genève, 1654, in-8°, et 1675, in-8°
 Recueil d'alchimie, contenant entre autres le Novum Lumen chemicum de Sendivogius, et l’Arcanum philosophiæ hermeticæ de d’Espagnet.</t>
